--- a/data/reemplazos_manual/unicos_ordenados_sugerencias.xlsx
+++ b/data/reemplazos_manual/unicos_ordenados_sugerencias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aricop/Desktop/ISA/Recomendador/recomendador_v2/data/reemplazos_manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEF67FD-DD64-3743-8C8C-D893A59E1DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C68570E-81C4-3648-A72B-A23A9EDCA9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19780" yWindow="600" windowWidth="19440" windowHeight="18720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T-PAP(C)_T-ACE" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,22 @@
     <sheet name="PRO-M" sheetId="7" r:id="rId7"/>
     <sheet name="M.OLTC" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="323">
   <si>
     <t>realizar analisis dga y humedad seguimiento</t>
   </si>
@@ -170,6 +180,9 @@
     <t>realizar segui. oltc antes energizar</t>
   </si>
   <si>
+    <t>verificar condicion antes energizar oltc</t>
+  </si>
+  <si>
     <t>realizar secado oltc</t>
   </si>
   <si>
@@ -221,6 +234,9 @@
     <t>revisar deshumificador oltc fase b</t>
   </si>
   <si>
+    <t>deshumificador</t>
+  </si>
+  <si>
     <t>revisar deshumidificador apagado oltc</t>
   </si>
   <si>
@@ -257,9 +273,6 @@
     <t>hacer pruebas lab despues manto oltc</t>
   </si>
   <si>
-    <t>verificar condicion antes energizar oltc</t>
-  </si>
-  <si>
     <t>seguimiento antes de energizar - oltc</t>
   </si>
   <si>
@@ -299,12 +312,12 @@
     <t>realizar estimacion humedad en papel hrt</t>
   </si>
   <si>
+    <t>realizar prueba estimacion humedad whrt</t>
+  </si>
+  <si>
     <t>realizar estimacion humedad papel (whrt)</t>
   </si>
   <si>
-    <t>realizar prueba estimacion humedad whrt</t>
-  </si>
-  <si>
     <t>realizar regeneramiento aceite aislante</t>
   </si>
   <si>
@@ -320,6 +333,9 @@
     <t>tratar evidencias de corrosion</t>
   </si>
   <si>
+    <t>LOS RESALTADOS EN AMARILLO NO SERIAN TAREAS PARA ESTE MODO DE FALLA</t>
+  </si>
+  <si>
     <t>hacer tratamiento contra la corrosion</t>
   </si>
   <si>
@@ -884,6 +900,9 @@
     <t>colocar a punto oltc fase a atr-1</t>
   </si>
   <si>
+    <t>punto oltc</t>
+  </si>
+  <si>
     <t>colocar a punto oltc fase c atr-1</t>
   </si>
   <si>
@@ -983,50 +1002,17 @@
     <t>corregir mando tap nivel 3 y 2, t-tgj_04</t>
   </si>
   <si>
-    <t>Devanados</t>
-  </si>
-  <si>
-    <t>Descargas parc</t>
-  </si>
-  <si>
-    <t>montaje</t>
-  </si>
-  <si>
-    <t>deshumificador</t>
-  </si>
-  <si>
-    <t>antes energizar</t>
-  </si>
-  <si>
-    <t>estimacion humedad</t>
-  </si>
-  <si>
-    <t>corrosion/corrosivo/corrosividad</t>
-  </si>
-  <si>
-    <t>valvula aliv/valvula de aliv</t>
-  </si>
-  <si>
-    <t>proteccion alivio</t>
-  </si>
-  <si>
-    <t>valvula de sobrepresion/valvula de sobre presion/valvula sobrepresion</t>
-  </si>
-  <si>
-    <t>subita</t>
-  </si>
-  <si>
-    <t>cambiador</t>
-  </si>
-  <si>
-    <t>punto oltc</t>
+    <t>revisar/cambiar contador cambiador tapsbiador</t>
+  </si>
+  <si>
+    <t>Es una actividad muy general, no aplica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,8 +1020,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,12 +1059,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1079,13 +1072,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1427,13 +1421,14 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1659,8 +1654,8 @@
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
-        <v>318</v>
+      <c r="E16" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1945,6 +1940,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -1953,14 +1951,14 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="217" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2004,8 +2002,8 @@
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>319</v>
+      <c r="E3" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2066,6 +2064,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -2074,13 +2075,16 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="215" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="49.83203125" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2110,8 +2114,8 @@
       <c r="D2">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>320</v>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2228,6 +2232,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -2235,15 +2242,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView zoomScale="249" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2287,16 +2294,16 @@
       <c r="D3">
         <v>31</v>
       </c>
-      <c r="E3" t="s">
-        <v>322</v>
+      <c r="E3" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>29</v>
@@ -2321,10 +2328,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>29</v>
@@ -2335,10 +2342,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>29</v>
@@ -2349,10 +2356,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -2363,10 +2370,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -2391,10 +2398,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>31</v>
@@ -2405,10 +2412,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>31</v>
@@ -2419,10 +2426,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>31</v>
@@ -2433,10 +2440,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>31</v>
@@ -2447,10 +2454,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>32</v>
@@ -2461,10 +2468,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16">
         <v>32</v>
@@ -2475,10 +2482,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17">
         <v>32</v>
@@ -2489,10 +2496,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18">
         <v>32</v>
@@ -2503,10 +2510,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19">
         <v>32</v>
@@ -2517,10 +2524,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20">
         <v>32</v>
@@ -2531,10 +2538,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>32</v>
@@ -2545,10 +2552,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22">
         <v>32</v>
@@ -2557,15 +2564,15 @@
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>321</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C23">
         <v>32</v>
@@ -2576,10 +2583,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <v>33</v>
@@ -2590,10 +2597,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25">
         <v>33</v>
@@ -2604,10 +2611,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <v>33</v>
@@ -2618,10 +2625,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27">
         <v>33</v>
@@ -2632,10 +2639,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C28">
         <v>33</v>
@@ -2646,10 +2653,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>33</v>
@@ -2660,10 +2667,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30">
         <v>33</v>
@@ -2674,10 +2681,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31">
         <v>33</v>
@@ -2688,10 +2695,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32">
         <v>34</v>
@@ -2702,10 +2709,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33">
         <v>34</v>
@@ -2716,10 +2723,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C34">
         <v>34</v>
@@ -2730,10 +2737,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -2744,10 +2751,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36">
         <v>34</v>
@@ -2772,10 +2779,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38">
         <v>34</v>
@@ -2786,10 +2793,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39">
         <v>34</v>
@@ -2800,10 +2807,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40">
         <v>35</v>
@@ -2814,10 +2821,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41">
         <v>35</v>
@@ -2828,10 +2835,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42">
         <v>35</v>
@@ -2842,10 +2849,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43">
         <v>35</v>
@@ -2856,10 +2863,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C44">
         <v>35</v>
@@ -2870,10 +2877,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45">
         <v>36</v>
@@ -2884,10 +2891,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46">
         <v>36</v>
@@ -2898,10 +2905,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C47">
         <v>36</v>
@@ -2912,10 +2919,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C48">
         <v>36</v>
@@ -2940,6 +2947,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -2947,14 +2957,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="343" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="222" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
     <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2973,10 +2984,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>24</v>
@@ -2984,16 +2995,16 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>323</v>
+      <c r="E2" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3">
         <v>24</v>
@@ -3018,10 +3029,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -3046,10 +3057,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>32</v>
@@ -3074,6 +3085,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -3081,23 +3095,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" customWidth="1"/>
+    <col min="2" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -3105,16 +3120,13 @@
       <c r="D1">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>324</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2">
         <v>17</v>
@@ -3125,10 +3137,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -3136,13 +3148,16 @@
       <c r="D3">
         <v>6</v>
       </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>22</v>
@@ -3153,10 +3168,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>23</v>
@@ -3167,10 +3182,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -3181,10 +3196,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C7">
         <v>26</v>
@@ -3194,11 +3209,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>101</v>
+      <c r="A8" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8">
         <v>29</v>
@@ -3209,10 +3224,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -3237,10 +3252,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C11">
         <v>34</v>
@@ -3265,6 +3280,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -3272,22 +3290,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView zoomScale="271" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="4" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -3295,16 +3314,16 @@
       <c r="D1">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>325</v>
+      <c r="E1" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -3315,10 +3334,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>22</v>
@@ -3329,10 +3348,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <v>22</v>
@@ -3343,10 +3362,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <v>22</v>
@@ -3357,10 +3376,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -3371,10 +3390,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -3385,10 +3404,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -3399,10 +3418,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C9">
         <v>23</v>
@@ -3410,16 +3429,16 @@
       <c r="D9">
         <v>154</v>
       </c>
-      <c r="E9" t="s">
-        <v>328</v>
+      <c r="E9" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C10">
         <v>23</v>
@@ -3430,10 +3449,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C11">
         <v>24</v>
@@ -3444,10 +3463,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C12">
         <v>24</v>
@@ -3458,10 +3477,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C13">
         <v>24</v>
@@ -3471,11 +3490,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>116</v>
+      <c r="A14" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C14">
         <v>24</v>
@@ -3483,16 +3502,13 @@
       <c r="D14">
         <v>126</v>
       </c>
-      <c r="E14" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C15">
         <v>24</v>
@@ -3502,11 +3518,11 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>118</v>
+      <c r="A16" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C16">
         <v>25</v>
@@ -3515,12 +3531,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>119</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C17">
         <v>25</v>
@@ -3529,12 +3545,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C18">
         <v>25</v>
@@ -3543,12 +3559,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C19">
         <v>25</v>
@@ -3557,12 +3573,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C20">
         <v>25</v>
@@ -3571,12 +3587,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C21">
         <v>25</v>
@@ -3585,12 +3601,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C22">
         <v>25</v>
@@ -3599,12 +3615,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C23">
         <v>25</v>
@@ -3613,12 +3629,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C24">
         <v>26</v>
@@ -3627,12 +3643,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C25">
         <v>26</v>
@@ -3641,12 +3657,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C26">
         <v>26</v>
@@ -3655,12 +3671,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>129</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C27">
         <v>27</v>
@@ -3668,16 +3684,13 @@
       <c r="D27">
         <v>34</v>
       </c>
-      <c r="E27" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>130</v>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3686,12 +3699,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C29">
         <v>27</v>
@@ -3700,12 +3713,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C30">
         <v>27</v>
@@ -3714,12 +3727,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C31">
         <v>27</v>
@@ -3728,12 +3741,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C32">
         <v>27</v>
@@ -3744,10 +3757,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C33">
         <v>27</v>
@@ -3758,10 +3771,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C34">
         <v>28</v>
@@ -3772,10 +3785,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C35">
         <v>28</v>
@@ -3786,10 +3799,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C36">
         <v>28</v>
@@ -3800,10 +3813,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C37">
         <v>28</v>
@@ -3814,10 +3827,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C38">
         <v>28</v>
@@ -3828,10 +3841,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C39">
         <v>28</v>
@@ -3842,10 +3855,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C40">
         <v>28</v>
@@ -3856,10 +3869,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C41">
         <v>28</v>
@@ -3870,10 +3883,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C42">
         <v>28</v>
@@ -3898,10 +3911,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C44">
         <v>29</v>
@@ -3912,10 +3925,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45">
         <v>29</v>
@@ -3926,10 +3939,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C46">
         <v>29</v>
@@ -3940,10 +3953,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C47">
         <v>29</v>
@@ -3954,10 +3967,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C48">
         <v>29</v>
@@ -3968,10 +3981,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C49">
         <v>29</v>
@@ -3982,10 +3995,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C50">
         <v>29</v>
@@ -3996,10 +4009,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C51">
         <v>30</v>
@@ -4010,10 +4023,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C52">
         <v>30</v>
@@ -4024,10 +4037,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C53">
         <v>30</v>
@@ -4038,10 +4051,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C54">
         <v>30</v>
@@ -4052,10 +4065,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C55">
         <v>30</v>
@@ -4066,10 +4079,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C56">
         <v>30</v>
@@ -4080,10 +4093,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C57">
         <v>30</v>
@@ -4094,10 +4107,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C58">
         <v>30</v>
@@ -4108,10 +4121,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C59">
         <v>30</v>
@@ -4122,10 +4135,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C60">
         <v>30</v>
@@ -4136,10 +4149,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C61">
         <v>30</v>
@@ -4150,10 +4163,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C62">
         <v>30</v>
@@ -4164,10 +4177,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C63">
         <v>30</v>
@@ -4178,10 +4191,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C64">
         <v>30</v>
@@ -4192,10 +4205,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C65">
         <v>31</v>
@@ -4206,10 +4219,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B66" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C66">
         <v>31</v>
@@ -4220,10 +4233,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C67">
         <v>31</v>
@@ -4234,10 +4247,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C68">
         <v>31</v>
@@ -4248,10 +4261,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C69">
         <v>31</v>
@@ -4262,10 +4275,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C70">
         <v>31</v>
@@ -4276,10 +4289,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C71">
         <v>31</v>
@@ -4290,10 +4303,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C72">
         <v>31</v>
@@ -4304,10 +4317,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C73">
         <v>31</v>
@@ -4318,10 +4331,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C74">
         <v>31</v>
@@ -4332,10 +4345,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C75">
         <v>31</v>
@@ -4346,10 +4359,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C76">
         <v>31</v>
@@ -4360,10 +4373,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C77">
         <v>31</v>
@@ -4374,10 +4387,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C78">
         <v>31</v>
@@ -4388,10 +4401,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B79" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C79">
         <v>31</v>
@@ -4402,10 +4415,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C80">
         <v>31</v>
@@ -4416,10 +4429,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B81" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C81">
         <v>31</v>
@@ -4430,10 +4443,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C82">
         <v>32</v>
@@ -4444,10 +4457,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B83" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C83">
         <v>32</v>
@@ -4458,10 +4471,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C84">
         <v>32</v>
@@ -4472,10 +4485,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C85">
         <v>32</v>
@@ -4486,10 +4499,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C86">
         <v>32</v>
@@ -4500,10 +4513,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B87" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C87">
         <v>32</v>
@@ -4514,10 +4527,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C88">
         <v>32</v>
@@ -4528,10 +4541,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C89">
         <v>32</v>
@@ -4542,10 +4555,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C90">
         <v>32</v>
@@ -4556,10 +4569,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C91">
         <v>32</v>
@@ -4570,10 +4583,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C92">
         <v>32</v>
@@ -4584,10 +4597,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C93">
         <v>32</v>
@@ -4598,10 +4611,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C94">
         <v>32</v>
@@ -4612,10 +4625,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C95">
         <v>32</v>
@@ -4626,10 +4639,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C96">
         <v>32</v>
@@ -4640,10 +4653,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C97">
         <v>32</v>
@@ -4654,10 +4667,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C98">
         <v>32</v>
@@ -4668,10 +4681,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B99" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C99">
         <v>32</v>
@@ -4682,10 +4695,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B100" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C100">
         <v>32</v>
@@ -4696,10 +4709,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B101" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C101">
         <v>32</v>
@@ -4710,10 +4723,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B102" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C102">
         <v>32</v>
@@ -4724,10 +4737,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B103" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C103">
         <v>32</v>
@@ -4738,10 +4751,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B104" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C104">
         <v>32</v>
@@ -4752,10 +4765,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B105" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C105">
         <v>32</v>
@@ -4766,10 +4779,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B106" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C106">
         <v>32</v>
@@ -4780,10 +4793,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B107" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C107">
         <v>32</v>
@@ -4794,10 +4807,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B108" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C108">
         <v>32</v>
@@ -4808,10 +4821,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C109">
         <v>32</v>
@@ -4822,10 +4835,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B110" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C110">
         <v>32</v>
@@ -4836,10 +4849,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B111" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C111">
         <v>32</v>
@@ -4850,10 +4863,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B112" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C112">
         <v>32</v>
@@ -4864,10 +4877,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B113" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C113">
         <v>32</v>
@@ -4878,10 +4891,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C114">
         <v>32</v>
@@ -4892,10 +4905,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B115" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C115">
         <v>33</v>
@@ -4906,10 +4919,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B116" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C116">
         <v>33</v>
@@ -4920,10 +4933,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C117">
         <v>33</v>
@@ -4934,10 +4947,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C118">
         <v>33</v>
@@ -4948,10 +4961,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C119">
         <v>33</v>
@@ -4962,10 +4975,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C120">
         <v>33</v>
@@ -4976,10 +4989,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C121">
         <v>33</v>
@@ -4990,10 +5003,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B122" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C122">
         <v>33</v>
@@ -5004,10 +5017,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C123">
         <v>33</v>
@@ -5018,10 +5031,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B124" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C124">
         <v>33</v>
@@ -5032,10 +5045,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B125" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C125">
         <v>33</v>
@@ -5046,10 +5059,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B126" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C126">
         <v>33</v>
@@ -5060,10 +5073,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B127" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C127">
         <v>33</v>
@@ -5074,10 +5087,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B128" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C128">
         <v>33</v>
@@ -5088,10 +5101,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B129" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C129">
         <v>33</v>
@@ -5102,10 +5115,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B130" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C130">
         <v>33</v>
@@ -5116,10 +5129,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C131">
         <v>33</v>
@@ -5130,10 +5143,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B132" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C132">
         <v>33</v>
@@ -5144,10 +5157,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B133" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C133">
         <v>33</v>
@@ -5158,10 +5171,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B134" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C134">
         <v>33</v>
@@ -5186,10 +5199,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B136" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C136">
         <v>33</v>
@@ -5200,10 +5213,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B137" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C137">
         <v>33</v>
@@ -5214,10 +5227,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B138" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C138">
         <v>33</v>
@@ -5228,10 +5241,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B139" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C139">
         <v>33</v>
@@ -5242,10 +5255,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B140" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C140">
         <v>33</v>
@@ -5256,10 +5269,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B141" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C141">
         <v>33</v>
@@ -5284,10 +5297,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B143" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C143">
         <v>33</v>
@@ -5298,10 +5311,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B144" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C144">
         <v>33</v>
@@ -5312,10 +5325,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B145" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C145">
         <v>33</v>
@@ -5326,10 +5339,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B146" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C146">
         <v>33</v>
@@ -5340,10 +5353,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B147" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C147">
         <v>34</v>
@@ -5354,10 +5367,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C148">
         <v>34</v>
@@ -5368,10 +5381,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C149">
         <v>34</v>
@@ -5382,10 +5395,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B150" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C150">
         <v>34</v>
@@ -5396,10 +5409,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B151" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C151">
         <v>34</v>
@@ -5410,10 +5423,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B152" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C152">
         <v>34</v>
@@ -5424,10 +5437,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B153" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C153">
         <v>34</v>
@@ -5438,10 +5451,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B154" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C154">
         <v>34</v>
@@ -5452,10 +5465,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B155" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C155">
         <v>34</v>
@@ -5466,10 +5479,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B156" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C156">
         <v>34</v>
@@ -5480,10 +5493,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B157" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C157">
         <v>34</v>
@@ -5494,10 +5507,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B158" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C158">
         <v>34</v>
@@ -5508,10 +5521,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B159" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C159">
         <v>34</v>
@@ -5536,10 +5549,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B161" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C161">
         <v>34</v>
@@ -5550,10 +5563,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B162" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C162">
         <v>34</v>
@@ -5564,10 +5577,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B163" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C163">
         <v>34</v>
@@ -5592,10 +5605,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C165">
         <v>35</v>
@@ -5606,10 +5619,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B166" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C166">
         <v>35</v>
@@ -5620,10 +5633,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B167" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C167">
         <v>35</v>
@@ -5634,10 +5647,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B168" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C168">
         <v>35</v>
@@ -5648,10 +5661,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B169" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C169">
         <v>35</v>
@@ -5662,10 +5675,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B170" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C170">
         <v>35</v>
@@ -5676,10 +5689,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B171" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C171">
         <v>35</v>
@@ -5690,10 +5703,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B172" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C172">
         <v>35</v>
@@ -5704,10 +5717,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B173" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C173">
         <v>35</v>
@@ -5718,10 +5731,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B174" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C174">
         <v>35</v>
@@ -5732,10 +5745,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B175" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C175">
         <v>35</v>
@@ -5746,10 +5759,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B176" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C176">
         <v>35</v>
@@ -5760,10 +5773,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B177" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C177">
         <v>35</v>
@@ -5774,10 +5787,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B178" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C178">
         <v>35</v>
@@ -5788,10 +5801,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C179">
         <v>35</v>
@@ -5802,10 +5815,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C180">
         <v>35</v>
@@ -5816,10 +5829,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C181">
         <v>35</v>
@@ -5830,10 +5843,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C182">
         <v>35</v>
@@ -5844,10 +5857,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C183">
         <v>35</v>
@@ -5872,10 +5885,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C185">
         <v>36</v>
@@ -5886,10 +5899,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C186">
         <v>36</v>
@@ -5900,10 +5913,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C187">
         <v>36</v>
@@ -5914,10 +5927,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C188">
         <v>37</v>
@@ -5956,29 +5969,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="52.5" customWidth="1"/>
+    <col min="2" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -5987,12 +6005,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>22</v>
@@ -6001,12 +6019,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C3">
         <v>26</v>
@@ -6014,16 +6032,16 @@
       <c r="D3">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C4">
         <v>27</v>
@@ -6032,12 +6050,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C5">
         <v>27</v>
@@ -6046,7 +6064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6060,12 +6078,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -6074,12 +6092,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C8">
         <v>28</v>
@@ -6088,12 +6106,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C9">
         <v>28</v>
@@ -6102,12 +6120,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C10">
         <v>28</v>
@@ -6116,12 +6134,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>29</v>
@@ -6130,12 +6148,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C12">
         <v>29</v>
@@ -6144,12 +6162,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C13">
         <v>29</v>
@@ -6158,15 +6176,18 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C14">
         <v>29</v>
@@ -6175,12 +6196,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15">
         <v>29</v>
@@ -6189,12 +6210,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>29</v>
@@ -6205,10 +6226,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C17">
         <v>29</v>
@@ -6219,10 +6240,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -6233,10 +6254,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -6247,10 +6268,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20">
         <v>30</v>
@@ -6261,10 +6282,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C21">
         <v>30</v>
@@ -6275,10 +6296,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -6289,10 +6310,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C23">
         <v>30</v>
@@ -6303,10 +6324,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C24">
         <v>31</v>
@@ -6317,10 +6338,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B25" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C25">
         <v>31</v>
@@ -6331,10 +6352,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B26" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C26">
         <v>31</v>
@@ -6345,10 +6366,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C27">
         <v>31</v>
@@ -6359,10 +6380,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C28">
         <v>31</v>
@@ -6373,10 +6394,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C29">
         <v>31</v>
@@ -6387,10 +6408,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C30">
         <v>31</v>
@@ -6401,10 +6422,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C31">
         <v>31</v>
@@ -6415,10 +6436,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C32">
         <v>32</v>
@@ -6429,10 +6450,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -6443,10 +6464,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C34">
         <v>32</v>
@@ -6457,10 +6478,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C35">
         <v>32</v>
@@ -6471,10 +6492,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C36">
         <v>32</v>
@@ -6485,10 +6506,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C37">
         <v>32</v>
@@ -6499,10 +6520,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B38" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C38">
         <v>32</v>
@@ -6513,10 +6534,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C39">
         <v>32</v>
@@ -6527,10 +6548,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C40">
         <v>33</v>
@@ -6541,10 +6562,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C41">
         <v>33</v>
@@ -6555,10 +6576,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C42">
         <v>33</v>
@@ -6569,10 +6590,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C43">
         <v>33</v>
@@ -6583,10 +6604,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B44" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C44">
         <v>33</v>
@@ -6597,10 +6618,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C45">
         <v>33</v>
@@ -6611,10 +6632,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B46" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C46">
         <v>33</v>
@@ -6625,10 +6646,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C47">
         <v>34</v>
@@ -6639,10 +6660,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C48">
         <v>34</v>
@@ -6653,10 +6674,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C49">
         <v>34</v>
@@ -6667,10 +6688,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B50" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C50">
         <v>34</v>
@@ -6681,10 +6702,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C51">
         <v>35</v>
@@ -6709,10 +6730,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53">
         <v>35</v>
@@ -6723,10 +6744,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C54">
         <v>37</v>
@@ -6737,5 +6758,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>